--- a/sporsmål.csv.xlsx
+++ b/sporsmål.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnuson_a\Byggapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64122E65-34B0-4CD9-99DE-7008C884F929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658CB796-7DDD-45DF-BFB2-EFA9524FD82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46165376-9D90-4D6F-9E9F-6DF6B2CDF55B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="137">
   <si>
     <t>tema</t>
   </si>
@@ -62,55 +62,391 @@
     <t>niva</t>
   </si>
   <si>
+    <t>HMS</t>
+  </si>
+  <si>
+    <t>Verneutstyr</t>
+  </si>
+  <si>
+    <t>Når er det påbudt å bruke vernehjelm på en byggeplass?</t>
+  </si>
+  <si>
+    <t>Alltid når det er skiltet eller fare for fallende gjenstander</t>
+  </si>
+  <si>
+    <t>Bare når sjefen ser på</t>
+  </si>
+  <si>
+    <t>Hjelm beskytter mot fallende gjenstander og støt.</t>
+  </si>
+  <si>
+    <t>Ergonomi</t>
+  </si>
+  <si>
+    <t>Hva er den største risikoen ved tunge løft over lang tid?</t>
+  </si>
+  <si>
+    <t>Belastningsskader i rygg og ledd</t>
+  </si>
+  <si>
+    <t>At man blir for fort sliten</t>
+  </si>
+  <si>
+    <t>Riktig løfteteknikk er avgjørende for en lang yrkeskarriere.</t>
+  </si>
+  <si>
+    <t>Orden</t>
+  </si>
+  <si>
+    <t>Hvorfor er det viktig å rydde arbeidsområdet løpende?</t>
+  </si>
+  <si>
+    <t>For å unngå snubleulykker og brannfare</t>
+  </si>
+  <si>
+    <t>Fordi det ser ryddigere ut for kunden</t>
+  </si>
+  <si>
+    <t>En ryddig byggeplass er en trygg byggeplass.</t>
+  </si>
+  <si>
+    <t>Farlig avfall</t>
+  </si>
+  <si>
+    <t>Hvordan skal kjemikalier og spillolje håndteres?</t>
+  </si>
+  <si>
+    <t>Leveres som farlig avfall på godkjent mottak</t>
+  </si>
+  <si>
+    <t>Tømmes i nærmeste avløp</t>
+  </si>
+  <si>
+    <t>Miljøhensyn er en del av HMS-ansvaret i byggfag.</t>
+  </si>
+  <si>
+    <t>Lover</t>
+  </si>
+  <si>
+    <t>Hva står forkortelsen SHA for i byggeprosjekter?</t>
+  </si>
+  <si>
+    <t>Sikkerhet, helse og arbeidsmiljø</t>
+  </si>
+  <si>
+    <t>Samarbeid, helse og ansvar</t>
+  </si>
+  <si>
+    <t>SHA-planen er lovpålagt for alle byggeplasser.</t>
+  </si>
+  <si>
+    <t>Identifisering</t>
+  </si>
+  <si>
+    <t>Hvilket verktøy bruker du for å merke en nøyaktig 90 graders vinkel?</t>
+  </si>
+  <si>
+    <t>Vinkelhake</t>
+  </si>
+  <si>
+    <t>Tommestokk</t>
+  </si>
+  <si>
+    <t>Presisjon starter med riktig oppmerking.</t>
+  </si>
+  <si>
+    <t>Sagutstyr</t>
+  </si>
+  <si>
+    <t>Hva er forskjellen på en kappsag og en kløyvsag?</t>
+  </si>
+  <si>
+    <t>Kappsag kutter på tvers, kløyvsag kutter på langs</t>
+  </si>
+  <si>
+    <t>Det er ingen forskjell</t>
+  </si>
+  <si>
+    <t>Bruk av feil blad eller sag til kløyving kan være farlig.</t>
+  </si>
+  <si>
+    <t>Vedlikehold</t>
+  </si>
+  <si>
+    <t>Hva skjer hvis du bruker et sløvt hulsag- eller bor?</t>
+  </si>
+  <si>
+    <t>Verktøyet går varmt og kan ødelegges</t>
+  </si>
+  <si>
+    <t>Det tar bare litt lengre tid</t>
+  </si>
+  <si>
+    <t>Skarpt verktøy er tryggere og gir bedre resultat.</t>
+  </si>
+  <si>
+    <t>Spikerpistol</t>
+  </si>
+  <si>
+    <t>Hva er viktigste sikkerhetsregel ved bruk av luftdrevet spikerpistol?</t>
+  </si>
+  <si>
+    <t>Koble fra luften ved fjerning av kiling</t>
+  </si>
+  <si>
+    <t>Holde fingeren på avtrekkeren alltid</t>
+  </si>
+  <si>
+    <t>Utilsiktet avfyring er en vanlig ulykkesårsak.</t>
+  </si>
+  <si>
+    <t>Batteri</t>
+  </si>
+  <si>
+    <t>Hva bør du gjøre med Li-ion batterier i streng kulde?</t>
+  </si>
+  <si>
+    <t>Ta dem inn i varmen når de ikke brukes</t>
+  </si>
+  <si>
+    <t>La dem stå i laderen ute</t>
+  </si>
+  <si>
+    <t>Batterikapasiteten svekkes kraftig i minusgrader.</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>HMS</t>
-  </si>
-  <si>
-    <t>Personlig verneutstyr</t>
-  </si>
-  <si>
-    <t>Hva er viktigst når du bruker vinkelsliper?</t>
-  </si>
-  <si>
-    <t>Vernebriller og hørselvern</t>
-  </si>
-  <si>
-    <t>Hansker og caps</t>
-  </si>
-  <si>
-    <t>Kildene sier at øyne og hørsel er mest utsatt ved gnistsprut.</t>
-  </si>
-  <si>
-    <t>Sikkerhet i verksted</t>
-  </si>
-  <si>
-    <t>Hva betyr et gult og sort skilt?</t>
-  </si>
-  <si>
-    <t>Advarsel om fare</t>
-  </si>
-  <si>
-    <t>Påbudt utstyr</t>
-  </si>
-  <si>
-    <t>Gult/sort indikerer faremomenter man må være oppmerksom på.</t>
-  </si>
-  <si>
-    <t>Lover og regler</t>
-  </si>
-  <si>
-    <t>Hvem har hovedansvaret for sikkerheten på byggeplassen?</t>
-  </si>
-  <si>
-    <t>Arbeidsgiver</t>
-  </si>
-  <si>
-    <t>Lærlingen</t>
-  </si>
-  <si>
-    <t>Arbeidsgiver skal sørge for et fullt forsvarlig arbeidsmiljø.</t>
+    <t>Verktøylære</t>
+  </si>
+  <si>
+    <t>Materiallære</t>
+  </si>
+  <si>
+    <t>Trevirke</t>
+  </si>
+  <si>
+    <t>Hva er den vanligste tresorten vi bruker til stenderverk i Norge?</t>
+  </si>
+  <si>
+    <t>Gran</t>
+  </si>
+  <si>
+    <t>Eik</t>
+  </si>
+  <si>
+    <t>Gran er rimelig og rettvokst.</t>
+  </si>
+  <si>
+    <t>Fukt</t>
+  </si>
+  <si>
+    <t>Hva er maksimal anbefalt fuktprosent i trevirke før kledning monteres?</t>
+  </si>
+  <si>
+    <t>15-18 %</t>
+  </si>
+  <si>
+    <t>For høy fuktighet kan føre til råte og krymping.</t>
+  </si>
+  <si>
+    <t>Betong</t>
+  </si>
+  <si>
+    <t>Hvorfor legger vi armeringsstål inn i betongkonstruksjoner?</t>
+  </si>
+  <si>
+    <t>For å tåle strekkrefter</t>
+  </si>
+  <si>
+    <t>For å gjøre betongen lettere</t>
+  </si>
+  <si>
+    <t>Betong tåler mye trykk, men lite strekk uten stål.</t>
+  </si>
+  <si>
+    <t>Isolasjon</t>
+  </si>
+  <si>
+    <t>Hvilket materiale er mest vanlig som trykkfast isolasjon under betonggulv?</t>
+  </si>
+  <si>
+    <t>XPS/EPS (isopor)</t>
+  </si>
+  <si>
+    <t>Mineralull</t>
+  </si>
+  <si>
+    <t>XPS tåler vekten av betongen uten å klemme seg sammen.</t>
+  </si>
+  <si>
+    <t>Miljø</t>
+  </si>
+  <si>
+    <t>Hva er fordelen med å velge kortreist trevirke fremfor importert stål?</t>
+  </si>
+  <si>
+    <t>Lavere CO2-utslipp fra transport</t>
+  </si>
+  <si>
+    <t>Det er alltid sterkere</t>
+  </si>
+  <si>
+    <t>Miljødokumentasjon er viktig i moderne byggfag.</t>
+  </si>
+  <si>
+    <t>Tegning</t>
+  </si>
+  <si>
+    <t>Målestokk</t>
+  </si>
+  <si>
+    <t>Hvis en tegning er i 1:100, hvor lang er 1 cm på tegningen i virkeligheten?</t>
+  </si>
+  <si>
+    <t>1 meter</t>
+  </si>
+  <si>
+    <t>10 cm</t>
+  </si>
+  <si>
+    <t>1:100 betyr at 1 enhet på papiret er 100 enheter ute.</t>
+  </si>
+  <si>
+    <t>Symboler</t>
+  </si>
+  <si>
+    <t>Hva betyr en stiplet linje på en plantegning?</t>
+  </si>
+  <si>
+    <t>Noe som er over snitthøyde eller skjult</t>
+  </si>
+  <si>
+    <t>En bærevegg</t>
+  </si>
+  <si>
+    <t>Stiplede linjer viser ofte overskap eller skjulte elementer.</t>
+  </si>
+  <si>
+    <t>Snitt</t>
+  </si>
+  <si>
+    <t>Hva er formålet med en snittegning?</t>
+  </si>
+  <si>
+    <t>Å vise oppbyggingen av vegger, gulv og tak</t>
+  </si>
+  <si>
+    <t>Å se fargen på huset</t>
+  </si>
+  <si>
+    <t>Snitt viser detaljer som ikke er synlige på en plan.</t>
+  </si>
+  <si>
+    <t>Toleranse</t>
+  </si>
+  <si>
+    <t>Hvorfor sjekke diagonaler når du setter ut en grunnmur?</t>
+  </si>
+  <si>
+    <t>For å sikre at hjørnene er nøyaktig 90 grader</t>
+  </si>
+  <si>
+    <t>For å se om den er loddrett</t>
+  </si>
+  <si>
+    <t>Like diagonaler betyr at rektangelet er vinkelrett.</t>
+  </si>
+  <si>
+    <t>Digitalt</t>
+  </si>
+  <si>
+    <t>Hva står forkortelsen BIM for i byggbransjen?</t>
+  </si>
+  <si>
+    <t>Bygningsinformasjonsmodellering</t>
+  </si>
+  <si>
+    <t>Billig Innkjøp av Materialer</t>
+  </si>
+  <si>
+    <t>BIM er en digital 3D-modell av bygget.</t>
+  </si>
+  <si>
+    <t>Håndverktøy</t>
+  </si>
+  <si>
+    <t>Hva brukes et vater til?</t>
+  </si>
+  <si>
+    <t>Sjekke lodd og vater</t>
+  </si>
+  <si>
+    <t>Måle lengde</t>
+  </si>
+  <si>
+    <t>Vateret er essensielt for å få konstruksjoner rette.</t>
+  </si>
+  <si>
+    <t>Måleverktøy</t>
+  </si>
+  <si>
+    <t>Hva er fordelen med en lasermåler?</t>
+  </si>
+  <si>
+    <t>Høy nøyaktighet over avstand</t>
+  </si>
+  <si>
+    <t>Den er billigere</t>
+  </si>
+  <si>
+    <t>Laser gir presise mål raskt i store rom.</t>
+  </si>
+  <si>
+    <t>Elektroverktøy</t>
+  </si>
+  <si>
+    <t>Hva må du sjekke før du bytter blad på en sag?</t>
+  </si>
+  <si>
+    <t>At støpselet er ute</t>
+  </si>
+  <si>
+    <t>At sagen er støvete</t>
+  </si>
+  <si>
+    <t>Koble alltid fra strømmen før vedlikehold.</t>
+  </si>
+  <si>
+    <t>Metaller</t>
+  </si>
+  <si>
+    <t>Hvorfor brukes ofte aluminium i beslag?</t>
+  </si>
+  <si>
+    <t>Rustbestandig og lett</t>
+  </si>
+  <si>
+    <t>Det er det sterkeste metallet</t>
+  </si>
+  <si>
+    <t>Aluminium ruster ikke og er enkelt å forme.</t>
+  </si>
+  <si>
+    <t>Førstehjelp</t>
+  </si>
+  <si>
+    <t>Hva gjør du først ved en alvorlig ulykke?</t>
+  </si>
+  <si>
+    <t>Sikre skadestedet</t>
+  </si>
+  <si>
+    <t>Ringe hjem</t>
+  </si>
+  <si>
+    <t>Sikring av stedet hindrer at flere blir skadet.</t>
   </si>
 </sst>
 </file>
@@ -174,12 +510,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -516,17 +855,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3F1D5E-5ACD-476E-BFAC-D044A21E864D}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:I4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -558,86 +897,724 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
